--- a/doc/appendices/requirements.xlsx
+++ b/doc/appendices/requirements.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samet\git\MasterThesis\doc\appendices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C39FC9-FF6B-4156-B0FE-B8C3A2BB573E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAC6D3F-E368-4CA2-B81D-2BE3B7E96F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6FB819A2-0D07-448F-B082-814D6E86F14A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
-  <si>
-    <t>Anforderung #</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
   <si>
     <t>Typ</t>
   </si>
@@ -59,57 +56,9 @@
     <t>Timing</t>
   </si>
   <si>
-    <t>Priorität</t>
-  </si>
-  <si>
-    <t>Der nutzenden Person soll es möglich sein, eine Markierung (wie z.B. ein "?") im Verlauf der Sensordaten zu setzen</t>
-  </si>
-  <si>
-    <t>Der nutzenden Person wird dadurch die Möglichkeit geboten, auf eine Unregelmäßigkeit im Verlauf der Sensordaten aufmerksam zu machen und eine Erläuterung durch Expert*innen anzufragen</t>
-  </si>
-  <si>
-    <t>Dadurch soll ermöglicht werden, Unregelmäßigkeiten begründen zu können und im weiteren Verlauf der Sensordaten, und der Auswertung dieser, berücksichtigt zu werden</t>
-  </si>
-  <si>
-    <t>Eine Markierung kann gesetzt werden, bleibt bestehen und ist für andere Nutzer*innen einsehbar</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>sofortige Einspeicherung der Markierung, dauerhafte Erhaltung bis zur manuellen Löschung</t>
-  </si>
-  <si>
-    <t>Der nutzenden Person soll es möglich sein, eine Heatmap einzusehen</t>
-  </si>
-  <si>
-    <t>Der nutzenden Person wird dadurch eine Übersicht angeboten, regionale Unterschiede einzusehen</t>
-  </si>
-  <si>
     <t>Dadurch soll es möglich sein, Rückschlüsse auf bestimmte Regionen (z.B. weniger Bäume gepflanzt, mehr Verkehr etc.) schließen zu können und verantwortliche Personen (z.B. Politiker*innen der Stadt Bamberg) diese Übersicht und damit die Korrelation präsentieren zu können</t>
   </si>
   <si>
-    <t>!!!</t>
-  </si>
-  <si>
-    <t>Der nutzenden Person soll es möglich sein, eine interaktive Karte (der Stadt Bamberg) einsehen zu können</t>
-  </si>
-  <si>
-    <t>Der nutzenden Person wird dadurch die Möglichkeit geboten die Sensordaten des Klimamessnetzes Bamberg einzusehen</t>
-  </si>
-  <si>
-    <t>Dadurch soll ermöglicht werden, dass Nutzer*innen die fundamentale Interaktion mit den Sensordaten geboten wird</t>
-  </si>
-  <si>
-    <t>Interaktive Karte der Karte Bamberg wird angezeigt, aktuelle Sensordaten für gewählten Sensor werden korrekt angezeigt</t>
-  </si>
-  <si>
-    <t>Sofortige Anzeige, dauerhaft bis Schließen/Wechseln des Fensters</t>
-  </si>
-  <si>
-    <t>!!!!</t>
-  </si>
-  <si>
     <t>Heatmap ist nach Auswahl einsehbar und angepasst an Sensordaten eingefärbt</t>
   </si>
   <si>
@@ -120,13 +69,262 @@
   </si>
   <si>
     <t>FR</t>
+  </si>
+  <si>
+    <t>Sofortiger Zugang, dauerhafte Speicherung der Benutzerdaten</t>
+  </si>
+  <si>
+    <t>Es soll eine separate Seite mit einem Registrierungsformular existieren, auf welcher sich Nutzer*innen durch Eingabe ihrer Daten registrieren können</t>
+  </si>
+  <si>
+    <t>Dadurch soll das zukünftige Einloggen der Nutzer*innen ermöglicht werden</t>
+  </si>
+  <si>
+    <t>Sofortiger Zugang zur Registrierungsseite, dauerhafte Speicherung der Benutzerdaten</t>
+  </si>
+  <si>
+    <t>FR = Functional Requirement</t>
+  </si>
+  <si>
+    <t>NFR = Non-functional Requirement</t>
+  </si>
+  <si>
+    <t>Einsehen der Sensordaten</t>
+  </si>
+  <si>
+    <t>Den Nutzer*innen soll die Möglichkeit geboten werden, die Daten von Sensoren einsehen zu können</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dadurch ist es den Nutzer*innen möglich, die Sensordaten, und damit die Temperaturen für die verschiedenen Regionen der Stadt einsehen zu können </t>
+  </si>
+  <si>
+    <t>sofortige Anzeige der Karte, den Sensoren und der aktuellen Sensordaten</t>
+  </si>
+  <si>
+    <t>Priorität (1=geringste Priorität, 5=höchste Priorität)</t>
+  </si>
+  <si>
+    <t>Ein-/Ausschalten einer Heatmap</t>
+  </si>
+  <si>
+    <t>Durch das Klicken eines Buttons ist es den Nutzer*innen möglich, eine Heatmap für den ausgewählten Bereich einzusehen oder auszublenden</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Auf der Login-Seite soll ein Formular zur Eingabe von Benutzername und Passwort existieren, auf welcher man sich einloggen kann</t>
+  </si>
+  <si>
+    <t>Dadurch soll ermöglicht werden, dass bereits gespeicherte Chats, welche Nutzer*innen zugeordnet werden können, erhalten bleiben und nur von diesen eingesehen werden können</t>
+  </si>
+  <si>
+    <t>Registrierung</t>
+  </si>
+  <si>
+    <t>Chat-Funktion an einem Sensor</t>
+  </si>
+  <si>
+    <t>Mithilfe einer Textbox in unmittelbarer Nähe des ausgewählten Sensors soll ein Chat zu diesem ausgewählten Sensor möglich sein</t>
+  </si>
+  <si>
+    <t>Der Austausch der Nutzer*innen dient dazu, Anomalien/Fehler in den Daten eines ausgewählten Sensors erkennen und erklären zu können</t>
+  </si>
+  <si>
+    <t>Textbox erscheint nach Auswahl des Sensors, Eingabe wird dauerhaft dem ausgewählten Sensor zugeordnet (inklusive Zeitstempel und Lesewert)</t>
+  </si>
+  <si>
+    <t>Sofortiges Erscheinen der Textbox, dauerhafte Speicherung der Eingabe in der DB</t>
+  </si>
+  <si>
+    <t>Manipulieren der Anzeige der Sensordaten</t>
+  </si>
+  <si>
+    <t>Mithilfe verschiedener Auswahlmöglichkeiten soll die Möglichkeit geschaffen werden, die Anzeige der Sensordaten so zu manipulieren, dass explizit ein gewünschter Zeitpunkt/-raum angezeigt wird</t>
+  </si>
+  <si>
+    <t>Die Manipulation der Anzeige der Sensordaten ermöglicht es den Nutzer*innen, gewünschte Zeitpunkte/-räume zu analysieren, Rückschlüsse aus diesen Analysen zu ziehen und eine faktenunterstützte Aussage abzuleiten</t>
+  </si>
+  <si>
+    <t>Regler zum Einstellen von Anfangs-/Endzeitpunkt vorhanden (jeweils für Datum und Uhrzeit), Manipulieren der Regler verändert Anzeige der Daten eines Sensors entsprechend</t>
+  </si>
+  <si>
+    <t>Sofortige Manipulation der Anzeige durch Verschieben der Regler</t>
+  </si>
+  <si>
+    <t>Einsehen der eigenen Chats</t>
+  </si>
+  <si>
+    <t>Beim Navigieren zum entsprechenden Bereich ist es den Nutzer*innen möglich, involvierte Chats einsehen zu können</t>
+  </si>
+  <si>
+    <t>Dadurch soll gewährleistet werden, dass Nutzer*innen einfach und schnell involvierte Chats und Sensoren finden können</t>
+  </si>
+  <si>
+    <t>Beim Navigieren zum entsprechenden Bereich werden Nutzer*innen alle involvierten Chats untereinander aufgelistet, durch den Klick auf diese Schaltflächen landen Nutzer*innen in den entsprechenden Chats</t>
+  </si>
+  <si>
+    <t>Sofortige Anzeige der Chats, dauerhafte Speicherung dieser, sofortige Navigation zu den entsprechenden Chats</t>
+  </si>
+  <si>
+    <t>Benachrichtigungen</t>
+  </si>
+  <si>
+    <t>Nutzer*innnen sollen über Neuigkeiten in involvierten Chats per Push-/E-Mail-Benachrichtigung benachrichtigt werden</t>
+  </si>
+  <si>
+    <t>Dadurch sollen Nutzer*innen über Neuigkeiten in den involvierten Chats benachrichtigt werden</t>
+  </si>
+  <si>
+    <t>Beim Eintreffen einer Neuigkeit (z.B. wenn neuer Chat an einem Sensor erfolgt ist) wird Nutzer*in je nach ausgewählter Einstellung (E-Mail/Push) auf die entsprechende Weise benachrichtigt</t>
+  </si>
+  <si>
+    <t>Sofortige Zustellung der Benachrichtigung</t>
+  </si>
+  <si>
+    <t>Hinzufügen von Favoriten</t>
+  </si>
+  <si>
+    <t>Nutzer*innen sollen in der Lage sein, Sensoren als Favorit markieren zu können</t>
+  </si>
+  <si>
+    <t>Sensoren, welche als Favorit markiert sind, sind schneller und einfacher zu lokalisieren</t>
+  </si>
+  <si>
+    <t>Ein als Favorit markierter Sensor soll in der Karte farblich hervorgehoben werden und in der Favoritenübersicht aufgelistet sein</t>
+  </si>
+  <si>
+    <t>Sofortige Markierung des Sensors als Favorit, dauerhafte Speicherung des Sensors als Favorit auf der Karte und im Favoritbereich</t>
+  </si>
+  <si>
+    <t>Qualitätskontrolle der Sensordaten</t>
+  </si>
+  <si>
+    <t>Die verwendeten Sensordaten müssen zunächst eine Qualitätskontrolle durchlaufen, bevor diese repräsentativ eingesetzt werden können</t>
+  </si>
+  <si>
+    <t>Ausreißer und Fehler in der Auslesung könenn dafür sorgen, dass Fehlschlüsse und falsche Anzeigen (z.B. in einer Heatmap) auftreten können</t>
+  </si>
+  <si>
+    <t>Die eingesetzten Daten wurden einer Qualitätskontrolle unterzogen und sind dementsprechend fehlerfrei und exakt</t>
+  </si>
+  <si>
+    <t>Kontinuierlich</t>
+  </si>
+  <si>
+    <t>Login-Formular mit Benutzername und Passwort und Button zum Absenden, Eingaben entsprechen echten Werten, welche in der Datenbank hinterlegt sind; ODER: Einsatz von bereits existierendem Login-Verfahren des BVM durch Nextcloud</t>
+  </si>
+  <si>
+    <t>Einheitliche Organisation der Daten</t>
+  </si>
+  <si>
+    <t>Die Daten sollen an einem einheitlichen Standort organisiert und verwaltet werden</t>
+  </si>
+  <si>
+    <t>Daten (Login-, Sensor- und Wissensspeicherdaten) liegen an verschiedenen Standorten, weswegen es notwendig ist, diese an einem Ort zu bündeln</t>
+  </si>
+  <si>
+    <t>Auf die Daten lässt sich an einem Ort zugreifen und alle Applikationen sind zu einem einheitlichen Artefakt gebündelt</t>
+  </si>
+  <si>
+    <t>Dauerhaft</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Anzeige von relevanten Landmarks auf der Karte</t>
+  </si>
+  <si>
+    <t>Auf der Karte sollen hitzerelevante Landmarks (wie z.B. Wasserbrunnen, Bäume) eingebunden werden</t>
+  </si>
+  <si>
+    <t>Diese Landmarks sollen die ausgelesenen Sensordaten unterstützen, damit Zusammenhänge ersichtlicher für Nutzer*innen werden</t>
+  </si>
+  <si>
+    <t>Hitzerelevante Landmarks sind auf der Karte sichtbar</t>
+  </si>
+  <si>
+    <t>Vergleiche</t>
+  </si>
+  <si>
+    <t>Für Nutzer*innen soll es möglich sein, verschiedene Sensoren zu verschiedenen Zeitpunkten/-räumen miteinander vergleichen zu können</t>
+  </si>
+  <si>
+    <t>Durch die Möglichkeit der Vergleiche von Sensoren ist es Nutzer*innen möglich, Aussagen über das Klima in der Innenstadt abzuleiten, in welchen Punkten sich Standorte der Sensoren unterscheiden und wo die Gründe hierfür liegen</t>
+  </si>
+  <si>
+    <t>Auswahl mehrerer Sensoren zum Vergleichen möglich, gewähltes Zeitfenster wird für gewählte Sensoren entsprechend angezeigt</t>
+  </si>
+  <si>
+    <t>Sofortige Anzeige</t>
+  </si>
+  <si>
+    <t>Es soll ein Button existieren, der alle oder einzelne Sensoren auf der Karte ein- oder ausblendet</t>
+  </si>
+  <si>
+    <t>Nutzer*innen haben so die Möglichkeit, den Fokus und die Übersicht auf die relevanten Sensoren zu lenken und irrelevante auszublenden</t>
+  </si>
+  <si>
+    <t>Button zum Ein-/Ausblenden einzelner Sensoren blendet diese entsprechend ein/aus, Button zum Ein-/Ausblenden aller Sensoren blendet diese entsprechend ein/aus</t>
+  </si>
+  <si>
+    <t>Speichern von Einstellungen</t>
+  </si>
+  <si>
+    <t>Es soll ein Button existieren, der vorgenommene Einstellung an entsprechenden Sensoren zu gewählten Zeitfenstern speichern soll</t>
+  </si>
+  <si>
+    <t>Diese Funktion soll Nutzer*innen eine einfache Methode bieten, für sie relevante Zeitfenster und Sensoren jederzeit schnell und einfach zu erreichen und ein wiederholtes Einstellen zu vermeiden</t>
+  </si>
+  <si>
+    <t>Gewähltes Zeitfenster zu gewählten Sensor wird entsprechend korrekt gespeichert und kann erneut aufgerufen werden</t>
+  </si>
+  <si>
+    <t>Dauerhafte Speicherung</t>
+  </si>
+  <si>
+    <t>Vordefinierte Standardansichten</t>
+  </si>
+  <si>
+    <t>Es sollen Buttons mit vordefinierten Standardansichten existieren, welche angeklickt werden können, um entsprechende Anzeigen auf der Karte Nutzer*innen präsentieren zu können (z.B. Sommertage, Tropennächte etc.)</t>
+  </si>
+  <si>
+    <t>Dadurch haben Nutzer*innen einen schnellen Zugriff auf allgemein relevante Einstellungen für den schnellen Abruf und eine vorher nötige Einstellung kann vermieden werden (z.B. "wie genau stellt man das Zeitfenster so ein, um alle Tropennächte angezeigt zu bekommen?")</t>
+  </si>
+  <si>
+    <t>Klick auf Button passt alle Sensoren auf der Karte dem entsprechenden Zeitfenster an, Zeitfenster sind korrekt gesetzt</t>
+  </si>
+  <si>
+    <t>Bu+D4tton zum Ein-/Ausblenden von Stationen</t>
+  </si>
+  <si>
+    <t>Eine Karte mit den verschiedenen aufgestellten Sensoren, inklusive der aktuellen Messwerte dieser an den Sensoren selbst, ist in dem ausgewählten Gebiet einsehbar</t>
+  </si>
+  <si>
+    <t>Registrierungsformular existiert und wird nach erfolgter Eingabe an DB übermittelt; ODER: Einsatz von Nextcloud-Benutzerkonten</t>
+  </si>
+  <si>
+    <t>Barrierefreiheit berücksichtigen</t>
+  </si>
+  <si>
+    <t>In allen Bereichen der Implementierung soll Barrierefreiheit berücksichtigt werden</t>
+  </si>
+  <si>
+    <t>Allen Nutzer*innen soll es so möglich sein, ohne Einschränkungen das Tool verwenden zu können</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einsatz von barrierefreien Farben (z.B. Rot-Grün-Schwäche, kontrastreiche Farben), Alt-Text bei Bildern etc. </t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,12 +333,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,7 +354,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -179,34 +382,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -214,34 +421,28 @@
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -249,6 +450,12 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -264,8 +471,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D9504A38-CB6D-452F-988C-6A45B3D2B2F1}" name="Anforderungen" displayName="Anforderungen" ref="B2:I9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="10">
-  <autoFilter ref="B2:I9" xr:uid="{D9504A38-CB6D-452F-988C-6A45B3D2B2F1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D9504A38-CB6D-452F-988C-6A45B3D2B2F1}" name="Anforderungen" displayName="Anforderungen" ref="B2:I19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="B2:I19" xr:uid="{D9504A38-CB6D-452F-988C-6A45B3D2B2F1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -276,14 +483,14 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{EFE36484-8895-486C-B619-00450CA447CC}" name="Anforderung #" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{D4496026-8ED7-44B6-B096-A96E6C9CAD8D}" name="Typ" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{5DAFE89E-EC34-41B3-90DD-50191FE6FBDA}" name="Use Case" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{9630F2E3-DCB5-4E84-9BB9-FA4CF81B2F3B}" name="Beschreibung" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{14A85127-B212-4655-98C6-88195A1C30BE}" name="Begründung" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{6510AABB-4A08-4A17-B5B6-4F41EF2D3C86}" name="Passform-Kriterium" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{57A3F3FF-B5B9-4DA3-93D7-FDFB7E388D25}" name="Timing" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{4A086AA5-077C-46AD-8B00-D6829600ADBC}" name="Priorität" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{EFE36484-8895-486C-B619-00450CA447CC}" name="Nr." dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D4496026-8ED7-44B6-B096-A96E6C9CAD8D}" name="Typ" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{5DAFE89E-EC34-41B3-90DD-50191FE6FBDA}" name="Use Case" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{9630F2E3-DCB5-4E84-9BB9-FA4CF81B2F3B}" name="Beschreibung" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{14A85127-B212-4655-98C6-88195A1C30BE}" name="Begründung" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6510AABB-4A08-4A17-B5B6-4F41EF2D3C86}" name="Passform-Kriterium" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{57A3F3FF-B5B9-4DA3-93D7-FDFB7E388D25}" name="Timing" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{4A086AA5-077C-46AD-8B00-D6829600ADBC}" name="Priorität (1=geringste Priorität, 5=höchste Priorität)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -586,320 +793,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330F4012-666A-412A-AB7D-78B31F9C1AC7}">
-  <dimension ref="A2:M19"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" customWidth="1"/>
     <col min="5" max="5" width="58.85546875" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" customWidth="1"/>
     <col min="7" max="7" width="41" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
+    </row>
+    <row r="19" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="9">
-        <v>2</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="9">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="9">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" alignment="center"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="40" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/doc/appendices/requirements.xlsx
+++ b/doc/appendices/requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samet\git\MasterThesis\doc\appendices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAC6D3F-E368-4CA2-B81D-2BE3B7E96F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5894ECE4-42EA-4DB9-95F5-EA4FC87017AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6FB819A2-0D07-448F-B082-814D6E86F14A}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6FB819A2-0D07-448F-B082-814D6E86F14A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,9 +39,6 @@
     <t>Typ</t>
   </si>
   <si>
-    <t>Use Case</t>
-  </si>
-  <si>
     <t>Beschreibung</t>
   </si>
   <si>
@@ -318,6 +313,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Anforderung</t>
   </si>
 </sst>
 </file>
@@ -485,7 +483,7 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{EFE36484-8895-486C-B619-00450CA447CC}" name="Nr." dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{D4496026-8ED7-44B6-B096-A96E6C9CAD8D}" name="Typ" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{5DAFE89E-EC34-41B3-90DD-50191FE6FBDA}" name="Use Case" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{5DAFE89E-EC34-41B3-90DD-50191FE6FBDA}" name="Anforderung" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{9630F2E3-DCB5-4E84-9BB9-FA4CF81B2F3B}" name="Beschreibung" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{14A85127-B212-4655-98C6-88195A1C30BE}" name="Begründung" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{6510AABB-4A08-4A17-B5B6-4F41EF2D3C86}" name="Passform-Kriterium" dataDxfId="2"/>
@@ -798,8 +796,8 @@
   </sheetPr>
   <dimension ref="B1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,28 +825,28 @@
     </row>
     <row r="2" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="75" x14ac:dyDescent="0.25">
@@ -856,22 +854,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="I3" s="3">
         <v>5</v>
@@ -882,22 +880,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="I4" s="1">
         <v>5</v>
@@ -908,28 +906,28 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="I5" s="1">
         <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="63" x14ac:dyDescent="0.25">
@@ -937,28 +935,28 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="I6" s="5">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="45" x14ac:dyDescent="0.25">
@@ -966,22 +964,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="I7" s="1">
         <v>4</v>
@@ -993,22 +991,22 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="I8" s="1">
         <v>4</v>
@@ -1020,22 +1018,22 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="I9" s="1">
         <v>3</v>
@@ -1047,22 +1045,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
@@ -1074,22 +1072,22 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I11" s="1">
         <v>3</v>
@@ -1100,22 +1098,22 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I12" s="1">
         <v>3</v>
@@ -1126,22 +1124,22 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I13" s="1">
         <v>3</v>
@@ -1152,22 +1150,22 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="I14" s="1">
         <v>2</v>
@@ -1178,22 +1176,22 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
@@ -1204,22 +1202,22 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="I16" s="1">
         <v>2</v>
@@ -1230,22 +1228,22 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I17" s="1">
         <v>2</v>
@@ -1256,22 +1254,22 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -1282,22 +1280,22 @@
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="G19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>

--- a/doc/appendices/requirements.xlsx
+++ b/doc/appendices/requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samet\git\MasterThesis\doc\appendices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5894ECE4-42EA-4DB9-95F5-EA4FC87017AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81E5B6C-2724-46EC-9DF7-1E1BD3F8ECC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6FB819A2-0D07-448F-B082-814D6E86F14A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6FB819A2-0D07-448F-B082-814D6E86F14A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="111">
   <si>
     <t>Typ</t>
   </si>
@@ -78,12 +78,6 @@
     <t>Sofortiger Zugang zur Registrierungsseite, dauerhafte Speicherung der Benutzerdaten</t>
   </si>
   <si>
-    <t>FR = Functional Requirement</t>
-  </si>
-  <si>
-    <t>NFR = Non-functional Requirement</t>
-  </si>
-  <si>
     <t>Einsehen der Sensordaten</t>
   </si>
   <si>
@@ -165,9 +159,6 @@
     <t>Benachrichtigungen</t>
   </si>
   <si>
-    <t>Nutzer*innnen sollen über Neuigkeiten in involvierten Chats per Push-/E-Mail-Benachrichtigung benachrichtigt werden</t>
-  </si>
-  <si>
     <t>Dadurch sollen Nutzer*innen über Neuigkeiten in den involvierten Chats benachrichtigt werden</t>
   </si>
   <si>
@@ -291,9 +282,6 @@
     <t>Klick auf Button passt alle Sensoren auf der Karte dem entsprechenden Zeitfenster an, Zeitfenster sind korrekt gesetzt</t>
   </si>
   <si>
-    <t>Bu+D4tton zum Ein-/Ausblenden von Stationen</t>
-  </si>
-  <si>
     <t>Eine Karte mit den verschiedenen aufgestellten Sensoren, inklusive der aktuellen Messwerte dieser an den Sensoren selbst, ist in dem ausgewählten Gebiet einsehbar</t>
   </si>
   <si>
@@ -316,6 +304,69 @@
   </si>
   <si>
     <t>Anforderung</t>
+  </si>
+  <si>
+    <t>Nutzer*innen sollen über Neuigkeiten in involvierten Chats per Push-/E-Mail-Benachrichtigung benachrichtigt werden</t>
+  </si>
+  <si>
+    <t>Button zum Ein-/Ausblenden von Stationen</t>
+  </si>
+  <si>
+    <t>Einsehen einer interaktiven Karte</t>
+  </si>
+  <si>
+    <t>Eine OpenStreetMap-Karte ist in der Startseite der Applikation eingebettet</t>
+  </si>
+  <si>
+    <t>Dadurch können Nutzer*innen eine interaktive Karte bedienen; stellt gleichzeitig das Fundament der anderen Anforderungen dar</t>
+  </si>
+  <si>
+    <t>Eine Karte der Stadt Bamberg ist einsehbar und interaktiv (d.h. Zoomen und Bewegen auf der Karte ist möglich)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sofortige Anzeige der Karte, dauerhaft einsehbar </t>
+  </si>
+  <si>
+    <t>Aufsetzen einer Datenbank</t>
+  </si>
+  <si>
+    <t>Eine Datenbank zur zentralen Datenverwaltung muss aufgebaut werden</t>
+  </si>
+  <si>
+    <t>Dadurch können notwendige Daten für die Bedienung und Interaktivität der Applikation bereitgestellt und abgerufen werden</t>
+  </si>
+  <si>
+    <t>Eine Datenbank ist vorhanden und an die Applikation eingebettet</t>
+  </si>
+  <si>
+    <t>Dauerhafte Existenz der Datenbank; dauerhafte Speicherung der Daten</t>
+  </si>
+  <si>
+    <t>Dadurch können Nutzer*innen die lokalen Klimazonen zusammen mit den Sensordaten für Analysen verwenden</t>
+  </si>
+  <si>
+    <t>Sofortige Anzeige und dauerhafte Speicherung der lokalen Klimazonen</t>
+  </si>
+  <si>
+    <t>Einbinden der lokalen Klimazonen (LCZ)</t>
+  </si>
+  <si>
+    <t>Für Nutzer*innen soll es möglich sein, die vordefinierten lokalen Klimazonen Bambergs in der Applikation einsehen zu können</t>
+  </si>
+  <si>
+    <t>Lokale Klimazonen sind definiert und können auf der interaktiven Karte eingesehen werden; LCZ können im Sensorinspektor eingesehen werden</t>
+  </si>
+  <si>
+    <t>Request-Parametrisierung der URL</t>
+  </si>
+  <si>
+    <t>Die URL soll die Parameter der Anfrage beinhalten</t>
+  </si>
+  <si>
+    <t>Auf diese Weise können Anfragen zwischen Nutzer*innen geteilt werden</t>
+  </si>
+  <si>
+    <t>URL zeigt eingestellte Parameter an, beim Teilen und Aufrufen der entsprechenden URL werden die identischen Einstellungen direkt angewendet</t>
   </si>
 </sst>
 </file>
@@ -469,8 +520,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D9504A38-CB6D-452F-988C-6A45B3D2B2F1}" name="Anforderungen" displayName="Anforderungen" ref="B2:I19" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="B2:I19" xr:uid="{D9504A38-CB6D-452F-988C-6A45B3D2B2F1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D9504A38-CB6D-452F-988C-6A45B3D2B2F1}" name="Anforderungen" displayName="Anforderungen" ref="B2:I23" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="B2:I23" xr:uid="{D9504A38-CB6D-452F-988C-6A45B3D2B2F1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -794,22 +845,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K19"/>
+  <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="58.85546875" customWidth="1"/>
     <col min="6" max="6" width="50.7109375" customWidth="1"/>
     <col min="7" max="7" width="41" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -825,13 +876,13 @@
     </row>
     <row r="2" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -846,36 +897,36 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="D3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -883,132 +934,126 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="I4" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="3">
         <v>5</v>
       </c>
-      <c r="K5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+    </row>
+    <row r="6" spans="2:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="5">
-        <v>4</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="I7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="2:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="5">
         <v>4</v>
       </c>
       <c r="K8" s="4"/>
@@ -1018,25 +1063,25 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="4"/>
     </row>
@@ -1045,49 +1090,49 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="I11" s="1">
         <v>3</v>
@@ -1098,22 +1143,22 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I12" s="1">
         <v>3</v>
@@ -1124,180 +1169,284 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="I13" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="90" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="I15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="H23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="I23" s="1">
         <v>1</v>
       </c>
     </row>
